--- a/biology/Botanique/Hygrophoraceae/Hygrophoraceae.xlsx
+++ b/biology/Botanique/Hygrophoraceae/Hygrophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hygrophoraceae[1] constituent une famille de champignons basidiomycètes, surtout caractérisée par la longueur relative de ses basides, du Clade III Hygrophoroïde de l'ordre des Agaricales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hygrophoraceae constituent une famille de champignons basidiomycètes, surtout caractérisée par la longueur relative de ses basides, du Clade III Hygrophoroïde de l'ordre des Agaricales.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Caractères macroscopiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lames bien distinctes, souvent épaisses et espacées, souvent décurrentes, plutôt épaisses, amincies sur l'arête, au toucher un peu gras, dit « cireux ». Chapeau et stipe de couleurs assez vives (notamment le genre Hygrocybe) et texture plutôt aqueuse (d'où le nom « hygrophore » (porteur d'eau), les revêtements étant généralement visqueux. Réactions chimiques négatives, sauf quelque jaunissement &gt; brunissement aux bases fortes.
-De récentes études phylogéniques modifient le classement linnéen[2],[3],[4].
+De récentes études phylogéniques modifient le classement linnéen.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Position des Hygrophoraceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clade des Athéloïdes
@@ -602,7 +618,9 @@
           <t>Liste des genres linnéens</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille comprend onze genres d'après Biolib et IndexFungorum :
 Cuphophyllus
